--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="10170" tabRatio="777" activeTab="3"/>
+    <workbookView windowWidth="27435" windowHeight="5085" tabRatio="777"/>
   </bookViews>
   <sheets>
     <sheet name="tablelist" sheetId="14" r:id="rId1"/>
@@ -387,7 +387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,6 +408,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -422,8 +446,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,25 +462,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,23 +487,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,23 +516,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,6 +542,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -561,168 +723,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,6 +733,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -754,82 +828,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,10 +841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,130 +856,130 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1355,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1692,7 +1692,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>filename</t>
   </si>
@@ -121,7 +121,7 @@
     <t>test_key_map_c.json</t>
   </si>
   <si>
-    <t>ID,Name,Age</t>
+    <t>Key,Name,Age</t>
   </si>
   <si>
     <t>key:map</t>
@@ -133,9 +133,6 @@
     <t>test_key_map_s.json</t>
   </si>
   <si>
-    <t>ID,Age</t>
-  </si>
-  <si>
     <t>test_key_array</t>
   </si>
   <si>
@@ -145,7 +142,7 @@
     <t>test_key_array_c.json</t>
   </si>
   <si>
-    <t>ID,Open,Desc,Ratio,Rward</t>
+    <t>ID,Open,Desc,Ratio,Reward</t>
   </si>
   <si>
     <t>key:array</t>
@@ -157,7 +154,7 @@
     <t>test_key_array_s.json</t>
   </si>
   <si>
-    <t>ID,Ratio,Rward,TaxRatio</t>
+    <t>ID,Ratio,Reward,TaxRatio</t>
   </si>
   <si>
     <t>test_key_value</t>
@@ -187,7 +184,7 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Rward</t>
+    <t>Reward</t>
   </si>
   <si>
     <t>Open</t>
@@ -351,10 +348,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -379,7 +376,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,9 +451,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,6 +482,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -433,81 +505,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -542,6 +539,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -572,49 +617,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,60 +684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,6 +730,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -751,26 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,21 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -841,145 +838,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1356,7 +1353,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1413,7 +1410,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1421,70 +1418,70 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:5">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1497,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1512,42 +1509,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1558,13 +1555,13 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3">
         <v>23</v>
@@ -1578,13 +1575,13 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3">
         <v>2.33</v>
@@ -1598,16 +1595,16 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1621,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1634,32 +1631,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="C3" s="3">
         <v>18</v>
@@ -1667,10 +1664,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="3">
         <v>19</v>
@@ -1705,146 +1702,146 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="14.1" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2">
         <v>0.23</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="14.1" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="14.1" customHeight="1" spans="1:3">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" ht="14.1" customHeight="1" spans="1:3">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" ht="14.1" customHeight="1" spans="1:3">
       <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" ht="14.1" customHeight="1" spans="1:3">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" ht="14.1" customHeight="1" spans="1:3">
       <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" t="s">
         <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" hidden="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="5085" tabRatio="777"/>
+    <workbookView windowWidth="26535" windowHeight="8490" tabRatio="777"/>
   </bookViews>
   <sheets>
     <sheet name="tablelist" sheetId="14" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>filename</t>
   </si>
@@ -109,9 +109,15 @@
     <t>fields</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>test_key_map</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>test_key_map_s.json</t>
   </si>
   <si>
+    <t>test_key_map_s.lua</t>
+  </si>
+  <si>
     <t>test_key_array</t>
   </si>
   <si>
@@ -157,6 +166,18 @@
     <t>ID,Ratio,Reward,TaxRatio</t>
   </si>
   <si>
+    <t>ID&gt;=102 or Ratio&gt;=0.7</t>
+  </si>
+  <si>
+    <t>test_key_array_s.lua</t>
+  </si>
+  <si>
+    <t>Ratio&gt;=0.6 and Open==1</t>
+  </si>
+  <si>
+    <t>lua配置表 Ratio:表示倍率</t>
+  </si>
+  <si>
     <t>test_key_value</t>
   </si>
   <si>
@@ -178,6 +199,9 @@
     <t>test_key_value_s.json</t>
   </si>
   <si>
+    <t>test_key_value_s.lua</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -277,7 +301,7 @@
     <t>KEY_OBJECT_ARRAY</t>
   </si>
   <si>
-    <t>[10,20]</t>
+    <t>[{"Name":"jzt1"},{"Name":"jzt2"}]</t>
   </si>
   <si>
     <t xml:space="preserve">数组 对象类型 </t>
@@ -335,9 +359,6 @@
   </si>
   <si>
     <t>KEY_STRING_OBJECT_DICT</t>
-  </si>
-  <si>
-    <t>"{"Ratio":1, "Base":10000}"</t>
   </si>
   <si>
     <t>字典 对象类型 字符串</t>
@@ -348,10 +369,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -376,6 +397,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -398,6 +480,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -405,70 +488,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,32 +504,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +526,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -539,6 +560,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -551,37 +686,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,78 +734,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,42 +741,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,30 +751,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,17 +769,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,6 +828,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -838,10 +859,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,16 +871,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -868,115 +889,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1350,22 +1371,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="28.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="4" max="5" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1381,107 +1403,174 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:5">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1494,13 +1583,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
@@ -1509,42 +1598,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1555,13 +1644,13 @@
         <v>0.6</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3">
         <v>23</v>
@@ -1575,13 +1664,13 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3">
         <v>2.33</v>
@@ -1595,16 +1684,36 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="5" t="b">
+        <v>49</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>43</v>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1631,32 +1740,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3">
         <v>18</v>
@@ -1664,10 +1773,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3">
         <v>19</v>
@@ -1690,7 +1799,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1702,146 +1811,146 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="14.1" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2">
         <v>0.23</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="14.1" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="14.1" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="14.1" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="14.1" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="14.1" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" ht="14.1" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" hidden="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26535" windowHeight="8490" tabRatio="777"/>
+    <workbookView windowWidth="27660" windowHeight="8760" tabRatio="777" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tablelist" sheetId="14" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>filename</t>
   </si>
@@ -235,79 +235,82 @@
     <t>STRING</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>[2,3,4]</t>
   </si>
   <si>
+    <t>{"Ratio":1, "Base":1000}</t>
+  </si>
+  <si>
+    <t>{"Ratio":1, "Base":null}</t>
+  </si>
+  <si>
+    <t>[10,15,20]</t>
+  </si>
+  <si>
+    <t>金宝箱</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>zhangsan</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>lisi</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>KEY_INT</t>
+  </si>
+  <si>
+    <t>整形</t>
+  </si>
+  <si>
+    <t>KEY_FLOAT</t>
+  </si>
+  <si>
+    <t>浮点型</t>
+  </si>
+  <si>
+    <t>KEY_BOOL</t>
+  </si>
+  <si>
+    <t>bool类型</t>
+  </si>
+  <si>
+    <t>KEY_OBJECT_ARRAY</t>
+  </si>
+  <si>
+    <t>[{"Name":"jzt1"},{"Name":"jzt2"}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数组 对象类型 </t>
+  </si>
+  <si>
+    <t>KEY_OBJECT_DICT</t>
+  </si>
+  <si>
     <t>{"Ratio":1, "Base":10000}</t>
-  </si>
-  <si>
-    <t>[3,5,7]</t>
-  </si>
-  <si>
-    <t>[10,15,20]</t>
-  </si>
-  <si>
-    <t>{"Ratio":1, "Base":1000}</t>
-  </si>
-  <si>
-    <t>金宝箱</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>zhangsan</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>lisi</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>ANY</t>
-  </si>
-  <si>
-    <t>KEY_INT</t>
-  </si>
-  <si>
-    <t>整形</t>
-  </si>
-  <si>
-    <t>KEY_FLOAT</t>
-  </si>
-  <si>
-    <t>浮点型</t>
-  </si>
-  <si>
-    <t>KEY_BOOL</t>
-  </si>
-  <si>
-    <t>bool类型</t>
-  </si>
-  <si>
-    <t>KEY_OBJECT_ARRAY</t>
-  </si>
-  <si>
-    <t>[{"Name":"jzt1"},{"Name":"jzt2"}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数组 对象类型 </t>
-  </si>
-  <si>
-    <t>KEY_OBJECT_DICT</t>
   </si>
   <si>
     <t>字典 对象类型</t>
@@ -369,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -405,6 +408,113 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -426,99 +536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -526,20 +543,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -560,6 +563,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -572,90 +737,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -663,84 +744,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,26 +757,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +783,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,17 +831,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,10 +862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,133 +874,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1373,8 +1376,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1585,8 +1588,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1640,17 +1643,17 @@
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3">
-        <v>0.6</v>
+      <c r="B3" t="s">
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3">
         <v>23</v>
@@ -1664,13 +1667,13 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3">
         <v>2.33</v>
@@ -1684,13 +1687,13 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>51</v>
@@ -1704,13 +1707,13 @@
         <v>0.8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>51</v>
@@ -1881,76 +1884,76 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="14.1" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="14.1" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="14.1" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="14.1" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" hidden="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="8760" tabRatio="777" activeTab="1"/>
+    <workbookView windowWidth="27660" windowHeight="8760" tabRatio="777" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tablelist" sheetId="14" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
   <si>
     <t>filename</t>
   </si>
@@ -265,13 +265,13 @@
     <t>test001</t>
   </si>
   <si>
-    <t>zhangsan</t>
+    <t>\\t\\tzhangsan\\n</t>
   </si>
   <si>
     <t>test002</t>
   </si>
   <si>
-    <t>lisi</t>
+    <t>{\"Ratio\":1,\"Base\":1000}</t>
   </si>
   <si>
     <t>Value</t>
@@ -319,7 +319,7 @@
     <t>KEY_STRING</t>
   </si>
   <si>
-    <t>"string test"</t>
+    <t>"string test\\n"</t>
   </si>
   <si>
     <t>字符串类型</t>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>KEY_STRING_OBJECT_DICT</t>
+  </si>
+  <si>
+    <t>"{\"Ratio\":1,\"Base\":1000}"</t>
   </si>
   <si>
     <t>字典 对象类型 字符串</t>
@@ -393,6 +396,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
@@ -481,14 +492,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -862,7 +865,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -874,79 +877,79 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -955,56 +958,56 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,12 +1021,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1377,7 +1383,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1391,22 +1397,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1588,8 +1594,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1683,10 +1689,10 @@
       <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.5</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D5" t="b">
@@ -1703,13 +1709,13 @@
       <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="b">
+      <c r="D6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
@@ -1732,13 +1738,13 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1767,7 +1773,7 @@
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="3">
@@ -1791,6 +1797,9 @@
       <c r="C5" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="\\t\\tzhangsan\\n"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1802,13 +1811,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1950,10 +1959,10 @@
         <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" hidden="1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="8760" tabRatio="777" activeTab="2"/>
+    <workbookView windowWidth="21810" windowHeight="9060" tabRatio="777"/>
   </bookViews>
   <sheets>
     <sheet name="tablelist" sheetId="14" r:id="rId1"/>
@@ -166,13 +166,13 @@
     <t>ID,Ratio,Reward,TaxRatio</t>
   </si>
   <si>
-    <t>ID&gt;=102 or Ratio&gt;=0.7</t>
+    <t>(Ratio != "null") and (ID&gt;=102 or Ratio&gt;=0.7)</t>
   </si>
   <si>
     <t>test_key_array_s.lua</t>
   </si>
   <si>
-    <t>Ratio&gt;=0.6 and Open==1</t>
+    <t>Ratio != "null" and Ratio&gt;=0.6 and Open==1</t>
   </si>
   <si>
     <t>lua配置表 Ratio:表示倍率</t>
@@ -375,10 +375,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -419,7 +419,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,30 +531,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -566,6 +566,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -585,168 +747,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,17 +760,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,15 +795,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,17 +834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,145 +865,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1391,7 +1391,8 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="5" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
+    <col min="5" max="5" width="70.125" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="52.375" customWidth="1"/>
   </cols>
@@ -1738,7 +1739,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21810" windowHeight="9060" tabRatio="777"/>
+    <workbookView windowWidth="24360" windowHeight="9630" tabRatio="777"/>
   </bookViews>
   <sheets>
     <sheet name="tablelist" sheetId="14" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>filename</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>lua配置表 Ratio:表示倍率</t>
+  </si>
+  <si>
+    <t>test_key_array_2_map_s.json</t>
+  </si>
+  <si>
+    <t>test_key_array_2_map_s.lua</t>
   </si>
   <si>
     <t>test_key_value</t>
@@ -1380,10 +1386,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1534,53 +1540,92 @@
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:6">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1608,42 +1653,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1651,16 +1696,16 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3">
         <v>23</v>
@@ -1674,13 +1719,13 @@
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="3">
         <v>2.33</v>
@@ -1694,16 +1739,16 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1714,16 +1759,16 @@
         <v>0.8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1750,32 +1795,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3">
         <v>18</v>
@@ -1783,10 +1828,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3">
         <v>19</v>
@@ -1824,146 +1869,146 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="14.1" customHeight="1" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2">
         <v>0.23</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="14.1" customHeight="1" spans="1:3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="14.1" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="14.1" customHeight="1" spans="1:3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" ht="14.1" customHeight="1" spans="1:3">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="14.1" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" ht="14.1" customHeight="1" spans="1:3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" hidden="1"/>
